--- a/biology/Botanique/Genkei_Masamune/Genkei_Masamune.xlsx
+++ b/biology/Botanique/Genkei_Masamune/Genkei_Masamune.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Genkei Masamune (正宗厳敬) est un botaniste japonais né en 1899 et mort en 1993.
 Il travaille à Formose et, après la Seconde Guerre mondiale, à Taïwan. Il est surtout connu pour ses index botaniques complets de Bornéo et de Taïwan, ainsi que pour sa découverte d’un grand nombre d’espèces.
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1954 : Flora Kainantensis: A List of Vascular Plants of Taiwan Plant Taxonomic Laboratory, Faculty of Sciences, Taipei, National University, Taipei, Taiwan;
 1945 : Boruneo no shokubutsu hoi. Enumeratio pteridophytarum Bornearum - Taihoku Imperial University, Taihoku, Formose.
@@ -547,7 +561,9 @@
           <t>Source de la traduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 27 février 2007)</t>
         </is>
